--- a/Library/SmokeSanityExcel/excelResultSmokeSanity_HopeV2.1.11_I.xlsx
+++ b/Library/SmokeSanityExcel/excelResultSmokeSanity_HopeV2.1.11_I.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
